--- a/1_AUGUST_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/1_AUGUST_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niazl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EB8FD49-1D93-460F-A92B-94975512B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Overall Attendance'!$A$1:$J$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">September!$A$1:$K$66</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -564,7 +563,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -968,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,18 +1078,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1105,36 +1144,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1157,28 +1177,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1748,12 +1746,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1764,8 +1762,9 @@
     <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" style="4" customWidth="1"/>
     <col min="11" max="12" width="9.140625" style="4" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="4"/>
@@ -1774,118 +1773,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57" t="s">
+      <c r="D4" s="47"/>
+      <c r="E4" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1899,10 +1898,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -1916,16 +1915,16 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="34" t="s">
         <v>99</v>
       </c>
@@ -1937,12 +1936,12 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="37" t="s">
         <v>94</v>
       </c>
@@ -1964,19 +1963,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
@@ -2001,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="35">
-        <f t="shared" ref="K14:K41" si="0">(J14/$J$12)*100</f>
+        <f>(J14/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2024,11 +2023,11 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="8">
-        <f t="shared" ref="J15:J41" si="1">SUM(D15:I15)</f>
+        <f>SUM(D15:I15)</f>
         <v>3</v>
       </c>
       <c r="K15" s="35">
-        <f t="shared" si="0"/>
+        <f>(J15/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2051,11 +2050,11 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D16:I16)</f>
         <v>3</v>
       </c>
       <c r="K16" s="35">
-        <f t="shared" si="0"/>
+        <f>(J16/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2078,11 +2077,11 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D17:I17)</f>
         <v>0</v>
       </c>
       <c r="K17" s="35">
-        <f t="shared" si="0"/>
+        <f>(J17/$J$12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2105,11 +2104,11 @@
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D18:I18)</f>
         <v>0</v>
       </c>
       <c r="K18" s="35">
-        <f t="shared" si="0"/>
+        <f>(J18/$J$12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2132,11 +2131,11 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D19:I19)</f>
         <v>0</v>
       </c>
       <c r="K19" s="35">
-        <f t="shared" si="0"/>
+        <f>(J19/$J$12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2159,11 +2158,11 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D20:I20)</f>
         <v>0</v>
       </c>
       <c r="K20" s="35">
-        <f t="shared" si="0"/>
+        <f>(J20/$J$12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2186,11 +2185,11 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D21:I21)</f>
         <v>3</v>
       </c>
       <c r="K21" s="35">
-        <f t="shared" si="0"/>
+        <f>(J21/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2213,11 +2212,11 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D22:I22)</f>
         <v>3</v>
       </c>
       <c r="K22" s="35">
-        <f t="shared" si="0"/>
+        <f>(J22/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2240,11 +2239,11 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D23:I23)</f>
         <v>3</v>
       </c>
       <c r="K23" s="35">
-        <f t="shared" si="0"/>
+        <f>(J23/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2267,11 +2266,11 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D24:I24)</f>
         <v>3</v>
       </c>
       <c r="K24" s="35">
-        <f t="shared" si="0"/>
+        <f>(J24/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2320,11 +2319,11 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <f>SUM(D26:I26)</f>
         <v>3</v>
       </c>
-      <c r="K26" s="79">
+      <c r="K26" s="35">
         <f>(J26/$J$12)*100</f>
         <v>100</v>
       </c>
@@ -2347,8 +2346,14 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="79"/>
+      <c r="J27" s="8">
+        <f>SUM(D27:I27)</f>
+        <v>3</v>
+      </c>
+      <c r="K27" s="35">
+        <f>(J27/$J$12)*100</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -2368,8 +2373,14 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="79"/>
+      <c r="J28" s="8">
+        <f>SUM(D28:I28)</f>
+        <v>3</v>
+      </c>
+      <c r="K28" s="35">
+        <f>(J28/$J$12)*100</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
@@ -2390,11 +2401,11 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D29:I29)</f>
         <v>3</v>
       </c>
       <c r="K29" s="35">
-        <f t="shared" si="0"/>
+        <f>(J29/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2417,11 +2428,11 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D30:I30)</f>
         <v>3</v>
       </c>
       <c r="K30" s="35">
-        <f t="shared" si="0"/>
+        <f>(J30/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2444,11 +2455,11 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D31:I31)</f>
         <v>3</v>
       </c>
       <c r="K31" s="35">
-        <f t="shared" si="0"/>
+        <f>(J31/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2471,11 +2482,11 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D32:I32)</f>
         <v>3</v>
       </c>
       <c r="K32" s="35">
-        <f t="shared" si="0"/>
+        <f>(J32/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2498,11 +2509,11 @@
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D33:I33)</f>
         <v>3</v>
       </c>
       <c r="K33" s="35">
-        <f t="shared" si="0"/>
+        <f>(J33/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2525,11 +2536,11 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D34:I34)</f>
         <v>3</v>
       </c>
       <c r="K34" s="35">
-        <f t="shared" si="0"/>
+        <f>(J34/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2552,11 +2563,11 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D35:I35)</f>
         <v>3</v>
       </c>
       <c r="K35" s="35">
-        <f t="shared" si="0"/>
+        <f>(J35/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2579,11 +2590,11 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D36:I36)</f>
         <v>3</v>
       </c>
       <c r="K36" s="35">
-        <f t="shared" si="0"/>
+        <f>(J36/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2606,11 +2617,11 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D37:I37)</f>
         <v>3</v>
       </c>
       <c r="K37" s="35">
-        <f t="shared" si="0"/>
+        <f>(J37/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2633,11 +2644,11 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D38:I38)</f>
         <v>0</v>
       </c>
       <c r="K38" s="35">
-        <f t="shared" si="0"/>
+        <f>(J38/$J$12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2660,11 +2671,11 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D39:I39)</f>
         <v>3</v>
       </c>
       <c r="K39" s="35">
-        <f t="shared" si="0"/>
+        <f>(J39/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2687,11 +2698,11 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D40:I40)</f>
         <v>3</v>
       </c>
       <c r="K40" s="35">
-        <f t="shared" si="0"/>
+        <f>(J40/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -2714,11 +2725,11 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(D41:I41)</f>
         <v>0</v>
       </c>
       <c r="K41" s="35">
-        <f t="shared" si="0"/>
+        <f>(J41/$J$12)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -2731,16 +2742,16 @@
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="62"/>
+      <c r="D43" s="46"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="62" t="s">
+      <c r="H43" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="I43" s="62"/>
+      <c r="I43" s="46"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
@@ -2760,16 +2771,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2781,6 +2782,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
@@ -2793,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B6C6EE-F81F-4A16-ACC1-7D4F6526DDE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -2818,106 +2829,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -2931,10 +2942,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -2952,16 +2963,16 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="34" t="s">
         <v>99</v>
       </c>
@@ -2977,12 +2988,12 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="37" t="s">
         <v>94</v>
       </c>
@@ -3008,19 +3019,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -4469,16 +4480,16 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="62"/>
+      <c r="D65" s="46"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="62"/>
+      <c r="I65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
@@ -4498,12 +4509,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -4513,12 +4524,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -4530,7 +4541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDB4AE5-1A3A-4A60-9541-F960C20935B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -4555,106 +4566,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4668,10 +4679,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -4689,16 +4700,16 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="34" t="s">
         <v>99</v>
       </c>
@@ -4714,12 +4725,12 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="37" t="s">
         <v>94</v>
       </c>
@@ -4745,19 +4756,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -6206,16 +6217,16 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="62"/>
+      <c r="D65" s="46"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="62"/>
+      <c r="I65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
@@ -6235,12 +6246,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -6250,12 +6261,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -6267,7 +6278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEE0E38-7D9C-441D-A7B2-331FA8FC39C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K71"/>
   <sheetViews>
@@ -6292,106 +6303,106 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -6405,10 +6416,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -6426,16 +6437,16 @@
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="60" t="s">
+      <c r="J10" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="34" t="s">
         <v>99</v>
       </c>
@@ -6451,12 +6462,12 @@
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="49"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="37" t="s">
         <v>94</v>
       </c>
@@ -6482,19 +6493,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
@@ -7943,16 +7954,16 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="62"/>
+      <c r="D65" s="46"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="62" t="s">
+      <c r="H65" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="62"/>
+      <c r="I65" s="46"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
@@ -7972,12 +7983,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="D13:K13"/>
@@ -7987,12 +7998,12 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -8004,7 +8015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCCB33B-5A86-4145-9B54-F45864A479A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
@@ -8030,93 +8041,93 @@
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
+      <c r="C1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -8130,56 +8141,56 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="71" t="str">
+      <c r="C9" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="78" t="str">
         <f>August!E5</f>
         <v>August 2022</v>
       </c>
-      <c r="E9" s="71">
+      <c r="E9" s="78">
         <f>September!E5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="78">
         <f>October!E5</f>
         <v>0</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="78">
         <f>November!E5</f>
         <v>0</v>
       </c>
-      <c r="H9" s="60" t="s">
+      <c r="H9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="73" t="s">
+      <c r="J9" s="69" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="74"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="20" t="s">
         <v>94</v>
       </c>
@@ -8207,7 +8218,7 @@
         <f>(H11/$H$11)*100</f>
         <v>100</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
@@ -9996,15 +10007,15 @@
       <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D64" s="62"/>
+      <c r="D64" s="46"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="72" t="s">
+      <c r="G64" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="H64" s="72"/>
+      <c r="H64" s="68"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F65" s="3"/>
@@ -10020,6 +10031,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="C64:D64"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="J9:J11"/>
@@ -10035,15 +10055,6 @@
     <mergeCell ref="E5:I5"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E7:I7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
   <pageSetup paperSize="5" scale="90" orientation="portrait" r:id="rId1"/>

--- a/1_AUGUST_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/1_AUGUST_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niazl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEB1D98-4E59-4BCA-8A98-25DADD9D5298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="August" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Balochistan University of Engineering &amp; Technology, Khuzdar</t>
   </si>
@@ -277,16 +279,22 @@
   </si>
   <si>
     <t>Mirza Azaz Baig</t>
+  </si>
+  <si>
+    <t>22MEEP-14</t>
+  </si>
+  <si>
+    <t>FEE IS NOT SUBMITTED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -366,8 +374,26 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +403,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,6 +660,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,9 +707,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -669,13 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,12 +1056,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1041,118 +1083,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1166,10 +1208,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="38" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1183,16 +1225,16 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="42" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
@@ -1204,12 +1246,12 @@
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="35"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1231,19 +1273,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1264,11 +1306,11 @@
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="8">
-        <f t="shared" ref="J14:J41" si="0">SUM(D14:I14)</f>
+        <f t="shared" ref="J14:J42" si="0">SUM(D14:I14)</f>
         <v>3</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" ref="K14:K41" si="1">(J14/$J$12)*100</f>
+        <f t="shared" ref="K14:K42" si="1">(J14/$J$12)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1546,54 +1588,54 @@
       <c r="A25" s="9">
         <v>12</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="29">
+        <v>3</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30">
+        <f t="shared" ref="J25" si="2">SUM(D25:I25)</f>
+        <v>3</v>
+      </c>
+      <c r="K25" s="31">
+        <f t="shared" ref="K25" si="3">(J25/$J$12)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>13</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>50</v>
+      <c r="B26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="D26" s="17">
-        <v>3</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1601,10 +1643,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D27" s="17">
         <v>3</v>
@@ -1628,10 +1670,10 @@
         <v>15</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="17">
         <v>3</v>
@@ -1655,19 +1697,19 @@
         <v>16</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="D29" s="17">
         <v>3</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1682,10 +1724,10 @@
         <v>17</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="17">
         <v>3</v>
@@ -1709,10 +1751,10 @@
         <v>18</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="17">
         <v>3</v>
@@ -1736,10 +1778,10 @@
         <v>19</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="D32" s="17">
         <v>3</v>
@@ -1763,10 +1805,10 @@
         <v>20</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>67</v>
+        <v>56</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="D33" s="17">
         <v>3</v>
@@ -1790,10 +1832,10 @@
         <v>21</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D34" s="17">
         <v>3</v>
@@ -1817,10 +1859,10 @@
         <v>22</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D35" s="17">
         <v>3</v>
@@ -1844,10 +1886,10 @@
         <v>23</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="17">
         <v>3</v>
@@ -1871,10 +1913,10 @@
         <v>24</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="17">
         <v>3</v>
@@ -1898,13 +1940,13 @@
         <v>25</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D38" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -1913,11 +1955,11 @@
       <c r="I38" s="17"/>
       <c r="J38" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K38" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1925,13 +1967,13 @@
         <v>26</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D39" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1940,11 +1982,11 @@
       <c r="I39" s="17"/>
       <c r="J39" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1952,10 +1994,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="D40" s="17">
         <v>3</v>
@@ -1979,13 +2021,13 @@
         <v>28</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D41" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -1994,61 +2036,78 @@
       <c r="I41" s="17"/>
       <c r="J41" s="8">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K41" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>29</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="17">
         <v>0</v>
       </c>
-      <c r="K41" s="21">
-        <f t="shared" si="1"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="42"/>
+      <c r="K42" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="46.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="42"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="32"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
+      <c r="H44" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="32"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2060,6 +2119,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
